--- a/biology/Botanique/AOT_40/AOT_40.xlsx
+++ b/biology/Botanique/AOT_40/AOT_40.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L' AOT 40 est l'expression d'un seuil de concentration d'ozone dans l'air ambiant, visant à protéger la végétation sur une période assez longue. 
-Le sigle vient de l'anglais et signifie « Accumulated Ozone exposure over a Threshold of 40 Parts Per Billion »[1].
+Le sigle vient de l'anglais et signifie « Accumulated Ozone exposure over a Threshold of 40 Parts Per Billion ».
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Définition et mode de calcul</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">AOT 40 (exprimé en microgrammes par mètre cube et par heure) signifie la somme des différences entre les concentrations horaires supérieures à 40 parties par milliard (40 ppb soit 80 µg/m3), durant une période donnée en utilisant uniquement les valeurs sur 1 heure mesurées quotidiennement entre 8 heures et 20 heures (CET).
-La valeur limite de l'AOT 40, pour la protection de la végétation, calculée à partir de valeurs moyennes horaires mesurées de mai à juillet est égale à 18 000 µg m−3 h−1 [2].
-(moyenne calculée sur 5 ans)[3].
+La valeur limite de l'AOT 40, pour la protection de la végétation, calculée à partir de valeurs moyennes horaires mesurées de mai à juillet est égale à 18 000 µg m−3 h−1 .
+(moyenne calculée sur 5 ans).
 </t>
         </is>
       </c>
